--- a/combined-experiments/results.xlsx
+++ b/combined-experiments/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jujohnson/git/DDOS-Classification/combined-experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764CB42C-51B4-EE49-9D24-9EEA94EC1C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BB3038-CAB4-364F-B4C1-390FAF7B36A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="800" windowWidth="29640" windowHeight="15880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10560" yWindow="600" windowWidth="20940" windowHeight="19080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUS" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="57">
   <si>
     <t>ROS Rate</t>
   </si>
@@ -204,13 +204,19 @@
   <si>
     <t>80</t>
   </si>
+  <si>
+    <t>Note: Our decision threshold selection criterion (TPR &gt; TNR and max G-Mean) resulted in threshold of 0.0.</t>
+  </si>
+  <si>
+    <t>ERRORED</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -280,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -385,51 +391,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -547,7 +508,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,7 +525,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,7 +534,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -624,21 +585,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,7 +616,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,23 +652,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2038,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="114" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="114" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2148,57 +2094,57 @@
       <c r="AF5" s="23"/>
     </row>
     <row r="6" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="49" t="s">
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="49" t="s">
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="51"/>
-      <c r="AH6" s="31" t="s">
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="46"/>
+      <c r="AH6" s="26" t="s">
         <v>39</v>
       </c>
       <c r="AI6">
@@ -2206,12 +2152,12 @@
       </c>
     </row>
     <row r="7" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="20" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2230,7 @@
       <c r="AF7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AH7" s="31" t="s">
+      <c r="AH7" s="26" t="s">
         <v>40</v>
       </c>
       <c r="AI7">
@@ -2292,19 +2238,19 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="33">
-        <v>1</v>
-      </c>
-      <c r="D8" s="34">
+      <c r="A8" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29">
         <v>8.1270000000000007</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="28">
         <v>2</v>
       </c>
       <c r="G8">
@@ -2385,7 +2331,7 @@
       <c r="AF8">
         <v>0.98089999999999999</v>
       </c>
-      <c r="AH8" s="31" t="s">
+      <c r="AH8" s="26" t="s">
         <v>41</v>
       </c>
       <c r="AI8">
@@ -2393,98 +2339,98 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="33">
-        <v>1</v>
-      </c>
-      <c r="D9" s="36">
+      <c r="C9" s="28">
+        <v>1</v>
+      </c>
+      <c r="D9" s="31">
         <v>4.0629999999999997</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="28">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3.1099999999999999E-3</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.7200000000000003E-3</v>
       </c>
       <c r="I9">
-        <v>0.98529999999999995</v>
+        <v>0.98563000000000001</v>
       </c>
       <c r="J9">
-        <v>5.4000000000000003E-3</v>
+        <v>2.4099999999999998E-3</v>
       </c>
       <c r="K9">
-        <v>0.97360000000000002</v>
+        <v>0.98231999999999997</v>
       </c>
       <c r="L9">
-        <v>0.9849</v>
+        <v>0.98401000000000005</v>
       </c>
       <c r="M9">
-        <v>0.98780000000000001</v>
+        <v>0.98731000000000002</v>
       </c>
       <c r="N9">
-        <v>0.99139999999999995</v>
+        <v>0.98916000000000004</v>
       </c>
       <c r="O9">
-        <v>0.98399999999999999</v>
+        <v>0.98448999999999998</v>
       </c>
       <c r="P9">
-        <v>9.4999999999999998E-3</v>
+        <v>8.2100000000000003E-3</v>
       </c>
       <c r="Q9">
-        <v>0.96619999999999995</v>
+        <v>0.97367999999999999</v>
       </c>
       <c r="R9">
-        <v>0.9798</v>
+        <v>0.97885</v>
       </c>
       <c r="S9">
-        <v>0.98640000000000005</v>
+        <v>0.98965999999999998</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0.99812000000000001</v>
       </c>
       <c r="U9">
-        <v>0.48220000000000002</v>
+        <v>0.53066999999999998</v>
       </c>
       <c r="V9">
-        <v>0.27900000000000003</v>
+        <v>0.34011000000000002</v>
       </c>
       <c r="W9">
-        <v>6.13E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
       <c r="X9">
-        <v>0.25230000000000002</v>
+        <v>0.31889000000000001</v>
       </c>
       <c r="Y9">
-        <v>0.71050000000000002</v>
+        <v>0.80740000000000001</v>
       </c>
       <c r="Z9">
-        <v>0.82079999999999997</v>
+        <v>0.97926000000000002</v>
       </c>
       <c r="AA9">
-        <v>0.65139999999999998</v>
+        <v>0.67806</v>
       </c>
       <c r="AB9">
-        <v>0.2329</v>
+        <v>0.26315</v>
       </c>
       <c r="AC9">
-        <v>0.24759999999999999</v>
+        <v>0.19611999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.49170000000000003</v>
+        <v>0.55979999999999996</v>
       </c>
       <c r="AE9">
-        <v>0.83430000000000004</v>
+        <v>0.88721000000000005</v>
       </c>
       <c r="AF9">
-        <v>0.89910000000000001</v>
+        <v>0.98023000000000005</v>
       </c>
       <c r="AH9" s="14" t="s">
         <v>42</v>
@@ -2494,19 +2440,19 @@
       </c>
     </row>
     <row r="10" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="35">
         <v>1</v>
       </c>
       <c r="D10" s="12">
         <v>2.0303</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="35">
         <v>2</v>
       </c>
       <c r="G10">
@@ -2595,19 +2541,19 @@
       </c>
     </row>
     <row r="11" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="40">
-        <v>1</v>
-      </c>
-      <c r="D11" s="36">
+      <c r="C11" s="35">
+        <v>1</v>
+      </c>
+      <c r="D11" s="31">
         <v>0.81089999999999995</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="35">
         <v>2</v>
       </c>
       <c r="G11">
@@ -2700,19 +2646,19 @@
       <c r="AL11"/>
     </row>
     <row r="12" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="40">
-        <v>1</v>
-      </c>
-      <c r="D12" s="35">
+      <c r="C12" s="35">
+        <v>1</v>
+      </c>
+      <c r="D12" s="30">
         <v>0.40439999999999998</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="35">
         <v>2</v>
       </c>
       <c r="G12">
@@ -2805,19 +2751,19 @@
       <c r="AL12"/>
     </row>
     <row r="13" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="40">
-        <v>1</v>
-      </c>
-      <c r="D13" s="35">
+      <c r="C13" s="35">
+        <v>1</v>
+      </c>
+      <c r="D13" s="30">
         <v>0.26889999999999997</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="35">
         <v>2</v>
       </c>
       <c r="G13">
@@ -2906,19 +2852,19 @@
       </c>
     </row>
     <row r="14" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="40">
-        <v>1</v>
-      </c>
-      <c r="D14" s="35">
+      <c r="C14" s="35">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30">
         <v>0.20119999999999999</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="35">
         <v>2</v>
       </c>
       <c r="G14">
@@ -3007,10 +2953,10 @@
       </c>
     </row>
     <row r="15" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="35">
         <v>1</v>
       </c>
       <c r="D15" s="15">
@@ -3019,7 +2965,7 @@
       <c r="E15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="35">
         <v>2</v>
       </c>
       <c r="G15">
@@ -3108,19 +3054,19 @@
       </c>
     </row>
     <row r="16" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="40">
-        <v>1</v>
-      </c>
-      <c r="D16" s="35">
+      <c r="C16" s="35">
+        <v>1</v>
+      </c>
+      <c r="D16" s="30">
         <v>1.83E-2</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="35">
         <v>2</v>
       </c>
       <c r="G16">
@@ -3209,19 +3155,19 @@
       </c>
     </row>
     <row r="17" spans="1:35" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="40">
-        <v>1</v>
-      </c>
-      <c r="D17" s="35">
+      <c r="C17" s="35">
+        <v>1</v>
+      </c>
+      <c r="D17" s="30">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="35">
         <v>2</v>
       </c>
       <c r="G17">
@@ -3310,19 +3256,19 @@
       </c>
     </row>
     <row r="18" spans="1:35" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="40">
-        <v>1</v>
-      </c>
-      <c r="D18" s="35">
+      <c r="C18" s="35">
+        <v>1</v>
+      </c>
+      <c r="D18" s="30">
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="35">
         <v>2</v>
       </c>
       <c r="G18">
@@ -3411,19 +3357,19 @@
       </c>
     </row>
     <row r="19" spans="1:35" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="40">
-        <v>1</v>
-      </c>
-      <c r="D19" s="35">
+      <c r="C19" s="35">
+        <v>1</v>
+      </c>
+      <c r="D19" s="30">
         <v>3.0500000000000002E-3</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="35">
         <v>2</v>
       </c>
       <c r="G19">
@@ -3512,19 +3458,19 @@
       </c>
     </row>
     <row r="20" spans="1:35" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="40">
-        <v>1</v>
-      </c>
-      <c r="D20" s="35">
+      <c r="C20" s="35">
+        <v>1</v>
+      </c>
+      <c r="D20" s="30">
         <v>2.0300000000000001E-3</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="35">
         <v>2</v>
       </c>
       <c r="G20">
@@ -3613,19 +3559,19 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="40">
-        <v>1</v>
-      </c>
-      <c r="D21" s="35">
+      <c r="C21" s="35">
+        <v>1</v>
+      </c>
+      <c r="D21" s="30">
         <v>1.3500000000000001E-3</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="35">
         <v>2</v>
       </c>
       <c r="G21">
@@ -3714,19 +3660,19 @@
       </c>
     </row>
     <row r="22" spans="1:35" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="40">
-        <v>1</v>
-      </c>
-      <c r="D22" s="35">
+      <c r="C22" s="35">
+        <v>1</v>
+      </c>
+      <c r="D22" s="30">
         <v>8.7000000000000001E-4</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="35">
         <v>2</v>
       </c>
       <c r="G22">
@@ -3815,19 +3761,19 @@
       </c>
     </row>
     <row r="23" spans="1:35" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="40">
-        <v>1</v>
-      </c>
-      <c r="D23" s="42">
+      <c r="C23" s="35">
+        <v>1</v>
+      </c>
+      <c r="D23" s="37">
         <v>5.1000000000000004E-4</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="35">
         <v>2</v>
       </c>
       <c r="G23">
@@ -3910,19 +3856,19 @@
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="40">
-        <v>1</v>
-      </c>
-      <c r="D24" s="42">
+      <c r="C24" s="35">
+        <v>1</v>
+      </c>
+      <c r="D24" s="37">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="36">
         <v>0.9</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="35">
         <v>2</v>
       </c>
       <c r="G24">
@@ -4080,60 +4026,60 @@
       <c r="AF27" s="23"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="52" t="s">
+      <c r="D28" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="49" t="s">
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="49" t="s">
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="49" t="s">
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="51"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="45"/>
+      <c r="AE28" s="46"/>
     </row>
     <row r="29" spans="1:35" ht="17" x14ac:dyDescent="0.2">
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="20" t="s">
         <v>6</v>
       </c>
@@ -4208,16 +4154,19 @@
       </c>
     </row>
     <row r="30" spans="1:35" ht="17" x14ac:dyDescent="0.2">
-      <c r="C30" s="43">
-        <v>1</v>
-      </c>
-      <c r="D30" s="34">
+      <c r="A30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="38">
+        <v>1</v>
+      </c>
+      <c r="D30" s="29">
         <v>8.1270000000000007</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="38">
         <v>2</v>
       </c>
       <c r="G30">
@@ -4249,111 +4198,63 @@
       <c r="AE30"/>
     </row>
     <row r="31" spans="1:35" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="43">
-        <v>1</v>
-      </c>
-      <c r="D31" s="36">
+      <c r="A31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="38">
+        <v>1</v>
+      </c>
+      <c r="D31" s="31">
         <v>4.0629999999999997</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="38">
         <v>2</v>
       </c>
       <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="I31">
-        <v>1.4E-3</v>
-      </c>
-      <c r="J31">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="K31">
-        <v>0.98950000000000005</v>
-      </c>
-      <c r="L31">
-        <v>0.99119999999999997</v>
-      </c>
-      <c r="M31">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="N31">
-        <v>0.98929999999999996</v>
-      </c>
-      <c r="O31">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="P31">
-        <v>0.98570000000000002</v>
-      </c>
-      <c r="Q31">
-        <v>0.98570000000000002</v>
-      </c>
-      <c r="R31">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31">
-        <v>0.47560000000000002</v>
-      </c>
-      <c r="U31">
-        <v>0.29749999999999999</v>
-      </c>
-      <c r="V31">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="W31">
-        <v>0.17630000000000001</v>
-      </c>
-      <c r="X31">
-        <v>0.74819999999999998</v>
-      </c>
-      <c r="Y31">
-        <v>0.82679999999999998</v>
-      </c>
-      <c r="Z31">
-        <v>0.62450000000000006</v>
-      </c>
-      <c r="AA31">
-        <v>0.28649999999999998</v>
-      </c>
-      <c r="AB31">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="AC31">
-        <v>0.41810000000000003</v>
-      </c>
-      <c r="AD31">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="AE31">
-        <v>0.90280000000000005</v>
-      </c>
+        <v>3.1099999999999999E-3</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
     </row>
     <row r="32" spans="1:35" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="38">
         <v>1</v>
       </c>
       <c r="D32" s="12">
         <v>2.0303</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="38">
         <v>2</v>
       </c>
       <c r="G32">
@@ -4433,19 +4334,19 @@
       </c>
     </row>
     <row r="33" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="43">
-        <v>1</v>
-      </c>
-      <c r="D33" s="36">
+      <c r="C33" s="38">
+        <v>1</v>
+      </c>
+      <c r="D33" s="31">
         <v>0.81089999999999995</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="38">
         <v>2</v>
       </c>
       <c r="G33">
@@ -4531,19 +4432,19 @@
       <c r="AK33"/>
     </row>
     <row r="34" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="43">
-        <v>1</v>
-      </c>
-      <c r="D34" s="35">
+      <c r="C34" s="38">
+        <v>1</v>
+      </c>
+      <c r="D34" s="30">
         <v>0.40439999999999998</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="38">
         <v>2</v>
       </c>
       <c r="G34">
@@ -4629,19 +4530,19 @@
       <c r="AK34"/>
     </row>
     <row r="35" spans="1:37" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="43">
-        <v>1</v>
-      </c>
-      <c r="D35" s="35">
+      <c r="C35" s="38">
+        <v>1</v>
+      </c>
+      <c r="D35" s="30">
         <v>0.26889999999999997</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="38">
         <v>2</v>
       </c>
       <c r="G35">
@@ -4721,19 +4622,19 @@
       </c>
     </row>
     <row r="36" spans="1:37" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="43">
-        <v>1</v>
-      </c>
-      <c r="D36" s="35">
+      <c r="C36" s="38">
+        <v>1</v>
+      </c>
+      <c r="D36" s="30">
         <v>0.20119999999999999</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="38">
         <v>2</v>
       </c>
       <c r="G36">
@@ -4813,10 +4714,10 @@
       </c>
     </row>
     <row r="37" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="38">
         <v>1</v>
       </c>
       <c r="D37" s="15">
@@ -4825,7 +4726,7 @@
       <c r="E37" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="38">
         <v>2</v>
       </c>
       <c r="G37">
@@ -4905,19 +4806,19 @@
       </c>
     </row>
     <row r="38" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="43">
-        <v>1</v>
-      </c>
-      <c r="D38" s="35">
+      <c r="C38" s="38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="30">
         <v>1.83E-2</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="43">
+      <c r="F38" s="38">
         <v>2</v>
       </c>
       <c r="G38">
@@ -4997,19 +4898,19 @@
       </c>
     </row>
     <row r="39" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="43">
-        <v>1</v>
-      </c>
-      <c r="D39" s="35">
+      <c r="C39" s="38">
+        <v>1</v>
+      </c>
+      <c r="D39" s="30">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="43">
+      <c r="F39" s="38">
         <v>2</v>
       </c>
       <c r="G39">
@@ -5089,19 +4990,19 @@
       </c>
     </row>
     <row r="40" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="43">
-        <v>1</v>
-      </c>
-      <c r="D40" s="35">
+      <c r="C40" s="38">
+        <v>1</v>
+      </c>
+      <c r="D40" s="30">
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="43">
+      <c r="F40" s="38">
         <v>2</v>
       </c>
       <c r="G40">
@@ -5181,19 +5082,19 @@
       </c>
     </row>
     <row r="41" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="43">
-        <v>1</v>
-      </c>
-      <c r="D41" s="35">
+      <c r="C41" s="38">
+        <v>1</v>
+      </c>
+      <c r="D41" s="30">
         <v>3.0500000000000002E-3</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="38">
         <v>2</v>
       </c>
       <c r="G41">
@@ -5273,19 +5174,19 @@
       </c>
     </row>
     <row r="42" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="43">
-        <v>1</v>
-      </c>
-      <c r="D42" s="35">
+      <c r="C42" s="38">
+        <v>1</v>
+      </c>
+      <c r="D42" s="30">
         <v>2.0300000000000001E-3</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F42" s="38">
         <v>2</v>
       </c>
       <c r="G42">
@@ -5365,19 +5266,19 @@
       </c>
     </row>
     <row r="43" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="35">
+      <c r="C43" s="38">
+        <v>1</v>
+      </c>
+      <c r="D43" s="30">
         <v>1.3500000000000001E-3</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="43">
+      <c r="F43" s="38">
         <v>2</v>
       </c>
       <c r="G43">
@@ -5457,19 +5358,19 @@
       </c>
     </row>
     <row r="44" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="43">
-        <v>1</v>
-      </c>
-      <c r="D44" s="35">
+      <c r="C44" s="38">
+        <v>1</v>
+      </c>
+      <c r="D44" s="30">
         <v>8.7000000000000001E-4</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="43">
+      <c r="F44" s="38">
         <v>2</v>
       </c>
       <c r="G44">
@@ -5549,19 +5450,19 @@
       </c>
     </row>
     <row r="45" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="43">
-        <v>1</v>
-      </c>
-      <c r="D45" s="42">
+      <c r="C45" s="38">
+        <v>1</v>
+      </c>
+      <c r="D45" s="37">
         <v>5.1000000000000004E-4</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F45" s="38">
         <v>2</v>
       </c>
       <c r="G45">
@@ -5641,19 +5542,19 @@
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="43">
-        <v>1</v>
-      </c>
-      <c r="D46" s="42">
+      <c r="C46" s="38">
+        <v>1</v>
+      </c>
+      <c r="D46" s="37">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="36">
         <v>0.9</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F46" s="38">
         <v>2</v>
       </c>
       <c r="G46">
@@ -5767,60 +5668,60 @@
       <c r="AF50" s="23"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="C51" s="52" t="s">
+      <c r="C51" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="52" t="s">
+      <c r="D51" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="52" t="s">
+      <c r="F51" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="52" t="s">
+      <c r="G51" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="46" t="s">
+      <c r="H51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="49" t="s">
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O51" s="50"/>
-      <c r="P51" s="50"/>
-      <c r="Q51" s="50"/>
-      <c r="R51" s="50"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="49" t="s">
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="U51" s="50"/>
-      <c r="V51" s="50"/>
-      <c r="W51" s="50"/>
-      <c r="X51" s="50"/>
-      <c r="Y51" s="51"/>
-      <c r="Z51" s="49" t="s">
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AA51" s="50"/>
-      <c r="AB51" s="50"/>
-      <c r="AC51" s="50"/>
-      <c r="AD51" s="50"/>
-      <c r="AE51" s="51"/>
+      <c r="AA51" s="45"/>
+      <c r="AB51" s="45"/>
+      <c r="AC51" s="45"/>
+      <c r="AD51" s="45"/>
+      <c r="AE51" s="46"/>
     </row>
     <row r="52" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
       <c r="H52" s="20" t="s">
         <v>6</v>
       </c>
@@ -5895,19 +5796,24 @@
       </c>
     </row>
     <row r="53" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="C53" s="45">
-        <v>1</v>
-      </c>
-      <c r="D53" s="34">
+      <c r="A53" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="40">
+        <v>1</v>
+      </c>
+      <c r="D53" s="29">
         <v>8.1270000000000007</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="45">
+      <c r="F53" s="40">
         <v>2</v>
       </c>
-      <c r="G53"/>
+      <c r="G53">
+        <v>1E-3</v>
+      </c>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
@@ -5934,111 +5840,63 @@
       <c r="AE53"/>
     </row>
     <row r="54" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="45">
-        <v>1</v>
-      </c>
-      <c r="D54" s="36">
+      <c r="A54" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="40">
+        <v>1</v>
+      </c>
+      <c r="D54" s="31">
         <v>4.0629999999999997</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="45">
+      <c r="F54" s="40">
         <v>2</v>
       </c>
       <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="I54">
-        <v>1.4E-3</v>
-      </c>
-      <c r="J54">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="K54">
-        <v>0.98950000000000005</v>
-      </c>
-      <c r="L54">
-        <v>0.99119999999999997</v>
-      </c>
-      <c r="M54">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="N54">
-        <v>0.5484</v>
-      </c>
-      <c r="O54">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="P54">
-        <v>0.4123</v>
-      </c>
-      <c r="Q54">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="R54">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="S54">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="T54">
-        <v>1</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>1</v>
-      </c>
-      <c r="W54">
-        <v>1</v>
-      </c>
-      <c r="X54">
-        <v>1</v>
-      </c>
-      <c r="Y54">
-        <v>1</v>
-      </c>
-      <c r="Z54">
-        <v>0.74029999999999996</v>
-      </c>
-      <c r="AA54">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="AB54">
-        <v>0.6421</v>
-      </c>
-      <c r="AC54">
-        <v>0.74370000000000003</v>
-      </c>
-      <c r="AD54">
-        <v>0.74370000000000003</v>
-      </c>
-      <c r="AE54">
-        <v>0.74370000000000003</v>
-      </c>
+        <v>3.1099999999999999E-3</v>
+      </c>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
     </row>
     <row r="55" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="40">
         <v>1</v>
       </c>
       <c r="D55" s="12">
         <v>2.0303</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="40">
         <v>2</v>
       </c>
       <c r="G55">
@@ -6118,19 +5976,19 @@
       </c>
     </row>
     <row r="56" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="45">
-        <v>1</v>
-      </c>
-      <c r="D56" s="36">
+      <c r="C56" s="40">
+        <v>1</v>
+      </c>
+      <c r="D56" s="31">
         <v>0.81089999999999995</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="45">
+      <c r="F56" s="40">
         <v>2</v>
       </c>
       <c r="G56">
@@ -6216,19 +6074,19 @@
       <c r="AK56"/>
     </row>
     <row r="57" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="45">
-        <v>1</v>
-      </c>
-      <c r="D57" s="35">
+      <c r="C57" s="40">
+        <v>1</v>
+      </c>
+      <c r="D57" s="30">
         <v>0.40439999999999998</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="40">
         <v>2</v>
       </c>
       <c r="G57">
@@ -6314,19 +6172,19 @@
       <c r="AK57"/>
     </row>
     <row r="58" spans="1:37" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="45">
-        <v>1</v>
-      </c>
-      <c r="D58" s="35">
+      <c r="C58" s="40">
+        <v>1</v>
+      </c>
+      <c r="D58" s="30">
         <v>0.26889999999999997</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="45">
+      <c r="F58" s="40">
         <v>2</v>
       </c>
       <c r="G58">
@@ -6406,19 +6264,19 @@
       </c>
     </row>
     <row r="59" spans="1:37" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="45">
-        <v>1</v>
-      </c>
-      <c r="D59" s="35">
+      <c r="C59" s="40">
+        <v>1</v>
+      </c>
+      <c r="D59" s="30">
         <v>0.20119999999999999</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="40">
         <v>2</v>
       </c>
       <c r="G59">
@@ -6498,10 +6356,10 @@
       </c>
     </row>
     <row r="60" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="45">
+      <c r="C60" s="40">
         <v>1</v>
       </c>
       <c r="D60" s="15">
@@ -6510,7 +6368,7 @@
       <c r="E60" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="40">
         <v>2</v>
       </c>
       <c r="G60">
@@ -6590,19 +6448,19 @@
       </c>
     </row>
     <row r="61" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="45">
-        <v>1</v>
-      </c>
-      <c r="D61" s="35">
+      <c r="C61" s="40">
+        <v>1</v>
+      </c>
+      <c r="D61" s="30">
         <v>1.83E-2</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="45">
+      <c r="F61" s="40">
         <v>2</v>
       </c>
       <c r="G61">
@@ -6682,19 +6540,19 @@
       </c>
     </row>
     <row r="62" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="45">
-        <v>1</v>
-      </c>
-      <c r="D62" s="35">
+      <c r="C62" s="40">
+        <v>1</v>
+      </c>
+      <c r="D62" s="30">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="40">
         <v>2</v>
       </c>
       <c r="G62">
@@ -6774,19 +6632,19 @@
       </c>
     </row>
     <row r="63" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="45">
-        <v>1</v>
-      </c>
-      <c r="D63" s="35">
+      <c r="C63" s="40">
+        <v>1</v>
+      </c>
+      <c r="D63" s="30">
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="E63" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="45">
+      <c r="F63" s="40">
         <v>2</v>
       </c>
       <c r="G63">
@@ -6866,19 +6724,19 @@
       </c>
     </row>
     <row r="64" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="45">
-        <v>1</v>
-      </c>
-      <c r="D64" s="35">
+      <c r="C64" s="40">
+        <v>1</v>
+      </c>
+      <c r="D64" s="30">
         <v>3.0500000000000002E-3</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="45">
+      <c r="F64" s="40">
         <v>2</v>
       </c>
       <c r="G64">
@@ -6958,19 +6816,19 @@
       </c>
     </row>
     <row r="65" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="45">
-        <v>1</v>
-      </c>
-      <c r="D65" s="35">
+      <c r="C65" s="40">
+        <v>1</v>
+      </c>
+      <c r="D65" s="30">
         <v>2.0300000000000001E-3</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="45">
+      <c r="F65" s="40">
         <v>2</v>
       </c>
       <c r="G65">
@@ -7050,19 +6908,19 @@
       </c>
     </row>
     <row r="66" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C66" s="45">
-        <v>1</v>
-      </c>
-      <c r="D66" s="35">
+      <c r="C66" s="40">
+        <v>1</v>
+      </c>
+      <c r="D66" s="30">
         <v>1.3500000000000001E-3</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F66" s="45">
+      <c r="F66" s="40">
         <v>2</v>
       </c>
       <c r="G66">
@@ -7142,19 +7000,19 @@
       </c>
     </row>
     <row r="67" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="45">
-        <v>1</v>
-      </c>
-      <c r="D67" s="35">
+      <c r="C67" s="40">
+        <v>1</v>
+      </c>
+      <c r="D67" s="30">
         <v>8.7000000000000001E-4</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="45">
+      <c r="F67" s="40">
         <v>2</v>
       </c>
       <c r="G67">
@@ -7234,19 +7092,19 @@
       </c>
     </row>
     <row r="68" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="45">
-        <v>1</v>
-      </c>
-      <c r="D68" s="42">
+      <c r="C68" s="40">
+        <v>1</v>
+      </c>
+      <c r="D68" s="37">
         <v>5.1000000000000004E-4</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F68" s="40">
         <v>2</v>
       </c>
       <c r="G68">
@@ -7326,19 +7184,19 @@
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="45">
-        <v>1</v>
-      </c>
-      <c r="D69" s="42">
+      <c r="C69" s="40">
+        <v>1</v>
+      </c>
+      <c r="D69" s="37">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="E69" s="41">
+      <c r="E69" s="36">
         <v>0.9</v>
       </c>
-      <c r="F69" s="45">
+      <c r="F69" s="40">
         <v>2</v>
       </c>
       <c r="G69">
@@ -7456,10 +7314,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AC15"/>
+  <dimension ref="A2:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7467,6 +7325,11 @@
     <col min="1" max="1" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="10"/>
@@ -7503,54 +7366,54 @@
     <row r="5" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="57" t="s">
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="57" t="s">
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="59"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="51"/>
     </row>
     <row r="6" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
@@ -7625,10 +7488,8 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
+      <c r="A7" s="33"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -7712,10 +7573,8 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
+      <c r="A8" s="33"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2">
         <v>4</v>
       </c>
@@ -7799,13 +7658,13 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="32"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="32"/>
     </row>
     <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11" t="s">
         <v>17</v>
@@ -7838,56 +7697,56 @@
       <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="57" t="s">
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="57" t="s">
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="59"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="51"/>
     </row>
     <row r="13" spans="1:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="6" t="s">
         <v>6</v>
       </c>
@@ -7962,47 +7821,91 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
+      <c r="A14" s="33"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="G14">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="H14">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="I14">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="J14">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="K14">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="L14">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="M14">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="N14">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="O14">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="S14">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="T14">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="U14">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="V14">
+        <v>0.41160000000000002</v>
+      </c>
+      <c r="W14">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="X14">
+        <v>0.32869999999999999</v>
+      </c>
+      <c r="Y14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="Z14">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="AA14">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="AB14">
+        <v>0.63739999999999997</v>
+      </c>
+      <c r="AC14">
+        <v>0.91069999999999995</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="2">
         <v>4</v>
       </c>
@@ -8010,30 +7913,78 @@
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="30"/>
+      <c r="F15">
+        <v>0.9929</v>
+      </c>
+      <c r="G15">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="H15">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="I15">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="J15">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="K15">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="L15">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="M15">
+        <v>1.8E-3</v>
+      </c>
+      <c r="N15">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="O15">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1.21E-2</v>
+      </c>
+      <c r="S15">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="T15">
+        <v>1E-4</v>
+      </c>
+      <c r="U15">
+        <v>1.4E-3</v>
+      </c>
+      <c r="V15">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="W15">
+        <v>4.36E-2</v>
+      </c>
+      <c r="X15">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="Y15">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="Z15">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="AA15">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="AB15">
+        <v>0.1321</v>
+      </c>
+      <c r="AC15">
+        <v>0.20849999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
